--- a/Employee Pay Adjustment Process/Data/Output/Updated_Employee_Details.xlsx
+++ b/Employee Pay Adjustment Process/Data/Output/Updated_Employee_Details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raksh\OneDrive\Documents\UiPath\Employee Pay Adjustment Process\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103F05B5-2A5C-4A81-87BA-1A6D84244790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802531DC-7095-4197-A58E-A410A4BFA96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1344" windowWidth="20340" windowHeight="10044" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="132" windowWidth="20340" windowHeight="11256" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmployeeDetails" sheetId="1" r:id="rId1"/>
@@ -711,7 +711,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-187D-49E1-96A9-A8BBB26A8445}"/>
+              <c16:uniqueId val="{00000000-EE49-4944-B321-7B44EAD913E1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -770,7 +770,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3000D3D-472E-9AA4-16C4-C80F67C212E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D0C6804-052D-FC34-E2CE-EA2B5B6AF210}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
